--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>548030.9292144221</v>
+        <v>543818.6886684818</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>11851279.69682648</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901943</v>
+        <v>2519657.038588232</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6968545.046873871</v>
+        <v>7878911.132663381</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>376.2268075574878</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.5321300145521</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>15.21029030982599</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>69.61444029309493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>255.6692373054084</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>122.5851894922874</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>11.12043047005087</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1136,13 +1138,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>119.0131614123039</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>24.12958620662185</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>66.72457055526924</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>209.5855565322903</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1543,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>106.2722943990321</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>78.26653139842</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>101.9929615813387</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>110.8247731533825</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>123.9086344760394</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>218.008057705788</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>76.64068269426164</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.15366458399268</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>192.8717243028901</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.8718498202629</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>48.01717451134703</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>96.18008851982863</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.5579231409067</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>78.33945238352635</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4192,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>35.22475259433168</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>767.4907853858125</v>
+        <v>1700.695594043986</v>
       </c>
       <c r="C2" t="n">
-        <v>767.4907853858125</v>
+        <v>1273.794864057287</v>
       </c>
       <c r="D2" t="n">
-        <v>767.4907853858125</v>
+        <v>850.5022432422868</v>
       </c>
       <c r="E2" t="n">
-        <v>767.4907853858125</v>
+        <v>424.5253033901444</v>
       </c>
       <c r="F2" t="n">
-        <v>342.3666035752127</v>
+        <v>424.5253033901444</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
         <v>44.49822504924752</v>
@@ -4331,22 +4333,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M2" t="n">
-        <v>1556.689382596035</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N2" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580473</v>
@@ -4355,25 +4357,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V2" t="n">
-        <v>1980.939403962828</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W2" t="n">
-        <v>1584.548054263175</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X2" t="n">
-        <v>1172.828055430922</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="Y2" t="n">
-        <v>767.4907853858125</v>
+        <v>2120.543958335516</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.653486901952</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437774</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>695.3677541233685</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>695.3677541233685</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L3" t="n">
-        <v>1128.080930530455</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M3" t="n">
-        <v>1128.080930530455</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N3" t="n">
-        <v>1128.080930530455</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O3" t="n">
-        <v>1128.080930530455</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.746465514893</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377672</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>494.9200589091697</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>322.9474957880857</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>159.6307229148564</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>159.6307229148564</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>159.6307229148564</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>159.6307229148564</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4492,7 +4494,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743914</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>1944.72680396268</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1663.015336570709</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>1388.162932743222</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X4" t="n">
-        <v>1388.162932743222</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>685.0860276212353</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>729.6507098898953</v>
+        <v>591.6142695938305</v>
       </c>
       <c r="C5" t="n">
-        <v>302.7499799031954</v>
+        <v>591.6142695938305</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>168.3216487788308</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>168.3216487788308</v>
       </c>
       <c r="F5" t="n">
         <v>44.49822504924752</v>
@@ -4568,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L5" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M5" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958193</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462376</v>
@@ -4598,19 +4600,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058788</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058788</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.556343058788</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>1554.836344226535</v>
+        <v>1416.79990393047</v>
       </c>
       <c r="Y5" t="n">
-        <v>1149.499074181425</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="6">
@@ -4626,16 +4628,16 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
         <v>44.49822504924752</v>
@@ -4644,22 +4646,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132766</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132766</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
         <v>1389.040378766978</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>729.0902991667033</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>557.1177360456193</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>393.80096317239</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>227.5927573252435</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>55.73098309980395</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>55.73098309980395</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
@@ -4756,19 +4758,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1944.72680396268</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1663.015336570709</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1388.162932743222</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1145.599036189027</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>919.256267878769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>471.3989550359474</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C8" t="n">
-        <v>44.49822504924752</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D8" t="n">
-        <v>44.49822504924752</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49822504924752</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924752</v>
@@ -4808,13 +4810,13 @@
         <v>44.49822504924752</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M8" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
         <v>2224.911252462376</v>
@@ -4835,19 +4837,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>2104.695937904493</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.695937904493</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W8" t="n">
-        <v>1708.30458820484</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.584589372587</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y8" t="n">
-        <v>891.2473193274775</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>669.8354755761781</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>669.8354755761781</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608814</v>
+        <v>669.8354755761781</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4939,22 +4941,22 @@
         <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924752</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.191253630123</v>
+        <v>2497.501727554001</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.290523643423</v>
+        <v>2070.600997567301</v>
       </c>
       <c r="D11" t="n">
-        <v>962.9979028284233</v>
+        <v>1647.308376752302</v>
       </c>
       <c r="E11" t="n">
-        <v>537.0209629762809</v>
+        <v>1221.331436900159</v>
       </c>
       <c r="F11" t="n">
-        <v>111.8967811656811</v>
+        <v>796.2072550895595</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>391.8681926790081</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="J11" t="n">
-        <v>407.101683866143</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="K11" t="n">
-        <v>957.767218850581</v>
+        <v>809.508122128542</v>
       </c>
       <c r="L11" t="n">
-        <v>1508.432753835019</v>
+        <v>1739.133169747819</v>
       </c>
       <c r="M11" t="n">
-        <v>2059.098288819457</v>
+        <v>2743.419271166877</v>
       </c>
       <c r="N11" t="n">
-        <v>2059.098288819457</v>
+        <v>3719.670329653577</v>
       </c>
       <c r="O11" t="n">
-        <v>2059.098288819457</v>
+        <v>3719.670329653577</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>4427.949608811505</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>4699.990707652146</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652146</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652146</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>4699.990707652146</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>4488.288125296297</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>4130.798710422547</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462376</v>
+        <v>3734.407360722893</v>
       </c>
       <c r="X11" t="n">
-        <v>1813.191253630123</v>
+        <v>3322.687361890641</v>
       </c>
       <c r="Y11" t="n">
-        <v>1813.191253630123</v>
+        <v>2917.350091845531</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>611.6217160807028</v>
+        <v>661.1233051844981</v>
       </c>
       <c r="C12" t="n">
-        <v>494.1158125982075</v>
+        <v>543.6174017020029</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>439.777443217288</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>335.0755094902252</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>241.4296791731293</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>147.3759073907333</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115936</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="J12" t="n">
-        <v>323.6423572907505</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="K12" t="n">
-        <v>874.3078922751884</v>
+        <v>684.4847407213825</v>
       </c>
       <c r="L12" t="n">
-        <v>874.3078922751884</v>
+        <v>684.4847407213825</v>
       </c>
       <c r="M12" t="n">
-        <v>874.3078922751884</v>
+        <v>1740.471278697428</v>
       </c>
       <c r="N12" t="n">
-        <v>874.3078922751884</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="O12" t="n">
-        <v>1220.501010560616</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="P12" t="n">
-        <v>1771.166545545054</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="Q12" t="n">
-        <v>1771.166545545054</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="R12" t="n">
-        <v>1853.185855629757</v>
+        <v>1902.687444733553</v>
       </c>
       <c r="S12" t="n">
-        <v>1771.861608191012</v>
+        <v>1821.363197294807</v>
       </c>
       <c r="T12" t="n">
-        <v>1629.98167248869</v>
+        <v>1679.483261592485</v>
       </c>
       <c r="U12" t="n">
-        <v>1445.213476408327</v>
+        <v>1494.715065512122</v>
       </c>
       <c r="V12" t="n">
-        <v>1240.240337547593</v>
+        <v>1289.741926651388</v>
       </c>
       <c r="W12" t="n">
-        <v>1043.71896038081</v>
+        <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>880.2416141474731</v>
+        <v>929.7432032512685</v>
       </c>
       <c r="Y12" t="n">
-        <v>740.5487255007655</v>
+        <v>790.0503146045609</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>919.256267878769</v>
+        <v>1177.18093667728</v>
       </c>
       <c r="C13" t="n">
-        <v>919.256267878769</v>
+        <v>1005.208373556196</v>
       </c>
       <c r="D13" t="n">
-        <v>755.9394950055397</v>
+        <v>841.8916006829664</v>
       </c>
       <c r="E13" t="n">
-        <v>589.7312891583932</v>
+        <v>675.68339483582</v>
       </c>
       <c r="F13" t="n">
-        <v>417.8695149329536</v>
+        <v>503.8216206103804</v>
       </c>
       <c r="G13" t="n">
-        <v>251.6125452271858</v>
+        <v>337.5646509046126</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>193.768382412767</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>93.99981415304292</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734055</v>
+        <v>151.4911423772009</v>
       </c>
       <c r="K13" t="n">
-        <v>328.5171544792427</v>
+        <v>378.0187435830381</v>
       </c>
       <c r="L13" t="n">
-        <v>683.2064757736634</v>
+        <v>732.7080648774589</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.392270743914</v>
+        <v>1123.89385984771</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.88378161995</v>
+        <v>1501.385370723746</v>
       </c>
       <c r="O13" t="n">
-        <v>1807.311910299713</v>
+        <v>1856.813499403509</v>
       </c>
       <c r="P13" t="n">
-        <v>2097.911122221614</v>
+        <v>2147.412711325409</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462376</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="R13" t="n">
-        <v>2224.911252462376</v>
+        <v>2227.374228253344</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2227.374228253344</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462376</v>
+        <v>2227.374228253344</v>
       </c>
       <c r="U13" t="n">
-        <v>1944.72680396268</v>
+        <v>2227.374228253344</v>
       </c>
       <c r="V13" t="n">
-        <v>1663.015336570709</v>
+        <v>2111.105974081285</v>
       </c>
       <c r="W13" t="n">
-        <v>1388.162932743222</v>
+        <v>1836.253570253798</v>
       </c>
       <c r="X13" t="n">
-        <v>1145.599036189027</v>
+        <v>1593.689673699603</v>
       </c>
       <c r="Y13" t="n">
-        <v>919.256267878769</v>
+        <v>1367.346905389345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1399.725618125736</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>972.8248881390361</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>549.5322673240364</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>123.555327471894</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924752</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336854</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L14" t="n">
-        <v>1006.023847611597</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M14" t="n">
-        <v>1006.023847611597</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N14" t="n">
-        <v>1556.689382596035</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>2107.354917580473</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580473</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462376</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462376</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462376</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462376</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.911252462376</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1819.573982417266</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>595.1637600336854</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>595.1637600336854</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336854</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>595.1637600336854</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O15" t="n">
-        <v>838.37484378254</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1389.040378766978</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>485.7509513926031</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>313.7783882715191</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D16" t="n">
-        <v>313.7783882715191</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E16" t="n">
-        <v>313.7783882715191</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F16" t="n">
-        <v>210.7551947550154</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924752</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924752</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1981.571904688275</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.38745618858</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V16" t="n">
-        <v>1419.675988796609</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.823584969122</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>902.2596884149267</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.9169201046687</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1171.829847796364</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1171.829847796364</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1171.829847796364</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1171.829847796364</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>746.7056659857641</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>342.3666035752127</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924752</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924752</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>595.1637600336854</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>1145.829295018124</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>1696.494830002561</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>1696.494830002561</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.825772958193</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462376</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2120.543958335516</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>1899.618387380149</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>1641.263477976561</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>1283.774063102811</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>1171.829847796364</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>1171.829847796364</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>1171.829847796364</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134925</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864297</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693792</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924752</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336854</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1637600336854</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="M18" t="n">
-        <v>595.1637600336854</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="N18" t="n">
-        <v>595.1637600336854</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="O18" t="n">
-        <v>838.37484378254</v>
+        <v>4398.937953252928</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1009.274747666399</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>837.302184545315</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>673.9854116720857</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>507.7772058249392</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>335.9154315994996</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>169.6584618937317</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2224.911252462376</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2224.911252462376</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2224.911252462376</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1943.199785070404</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1668.347381242917</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1425.783484688723</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1199.440716378465</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5759,43 +5761,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>374.0002026854196</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3918.135197142812</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>3746.162634021728</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D22" t="n">
-        <v>3582.845861148498</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4654.622661723635</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="V22" t="n">
-        <v>4654.622661723635</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="W22" t="n">
-        <v>4577.207830719331</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X22" t="n">
-        <v>4334.643934165136</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>4108.301165854878</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6072,16 +6074,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F25" t="n">
-        <v>201.4478291472353</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G25" t="n">
-        <v>201.4478291472353</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H25" t="n">
-        <v>201.4478291472353</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>4092.726745831968</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6306,25 +6308,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1158.289251381874</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4362.434577686964</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6598,16 +6600,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G31" t="n">
         <v>345.8675501573982</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,22 +6648,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.529878172021</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.529878172021</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>1587.529878172021</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
         <v>1375.649804642131</v>
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6774,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2039.376393044857</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2039.376393044857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6937,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6944,22 +6946,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -7026,13 +7028,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.617659878699</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3272.903411846529</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>3100.930848725445</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>3100.930848725445</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878299</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878299</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4701.661275036462</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4421.476826536767</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4139.765359144795</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W37" t="n">
-        <v>3864.912955317308</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X37" t="n">
-        <v>3622.349058763114</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y37" t="n">
-        <v>3396.006290452855</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,34 +7177,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1968.390475459782</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1686.67900806781</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W40" t="n">
-        <v>1411.826604240323</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X40" t="n">
-        <v>1411.826604240323</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y40" t="n">
-        <v>1185.483835930065</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7418,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1748.774177950213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.774177950213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O42" t="n">
-        <v>1748.774177950213</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2218.951952616325</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>549.6059248847499</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>549.6059248847499</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>470.47516490139</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924752</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924752</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924752</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>407.101683866143</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L44" t="n">
-        <v>407.101683866143</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M44" t="n">
-        <v>957.767218850581</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N44" t="n">
-        <v>1508.432753835019</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O44" t="n">
-        <v>2059.098288819457</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P44" t="n">
-        <v>2107.354917580473</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2120.543958335516</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2120.543958335516</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1763.054543461765</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1366.663193762112</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>954.9431949298596</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>549.6059248847499</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134925</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864297</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693792</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>323.6423572907505</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>323.6423572907505</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>323.6423572907505</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M45" t="n">
-        <v>669.8354755761782</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N45" t="n">
-        <v>1220.501010560616</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>1771.166545545054</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1771.166545545054</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.560603642277</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>617.588040521193</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>454.2712676479637</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>288.0630618008172</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
-        <v>288.0630618008172</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.737591668684</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.398243894584</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.213795394888</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1484.213795394888</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1448.633237218795</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.069340664601</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>979.7265723543426</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>452.4414523720696</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>547.8252218830993</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>459.5991032870443</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>98.17301358442536</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8216,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>300.3028744740154</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>550.6255558370721</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>267.4386025673079</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8456,16 +8458,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N8" t="n">
-        <v>571.0335849150664</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8526,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>372.0892523034622</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>463.1564485244924</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378161</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8553,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104032</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>86.31943126580316</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>310.9136633325184</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489273</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>185.1977413813445</v>
       </c>
       <c r="O12" t="n">
-        <v>372.8619081923513</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>453.3222319052608</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9006,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489273</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>59.58495761848395</v>
       </c>
       <c r="O15" t="n">
-        <v>268.8396510847016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204226</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>594.5398555482168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>110.6369203512729</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489273</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9255,13 +9257,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>268.8396510847016</v>
+        <v>530.2476341400716</v>
       </c>
       <c r="P18" t="n">
-        <v>577.9986543204226</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9407,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>924.3306556055956</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371733</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9480,7 +9482,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9489,19 +9491,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>977.4089016807933</v>
       </c>
       <c r="O21" t="n">
-        <v>300.5735435756951</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9878,13 +9880,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>924.3306556055956</v>
+        <v>995.9774475394107</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9956,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9969,13 +9971,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>699.2271871843856</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574439</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
@@ -10437,13 +10439,13 @@
         <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>50.69326316713236</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10592,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798516</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10674,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>279.576101048122</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,10 +10825,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11066,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036184</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11139,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>185.6255543726317</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>593.50743595004</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>86.31943126580316</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M45" t="n">
-        <v>372.786798982457</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>24.06886422895803</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22604,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>112.3823907104609</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22711,16 +22713,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>127.1480154971012</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.4649003340604</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22784,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>163.3904573014413</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>298.2877505002064</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22838,13 +22840,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>131.2378753368763</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22996,10 +22998,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23024,13 +23026,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23039,7 +23041,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,19 +23077,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>136.758198897248</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>377.1543111380367</v>
       </c>
     </row>
     <row r="9">
@@ -23179,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -23197,7 +23199,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>333.5711012311766</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23312,19 +23314,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>46.18580377726153</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>36.08601140789509</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -23470,10 +23472,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>342.6064085940737</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>68.15019490184646</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>281.6026630492741</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>18.44967133088778</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23938,13 +23940,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>59.37454630891071</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>195.4631970949505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>114.189558399806</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6172179931341049</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24649,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>79.23215548632197</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.3924592046821</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>122.2356629785261</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>181.2025154948701</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>151.8757738651498</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>340.7202422233233</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>236.8791271948804</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>458173.1853773473</v>
+        <v>458173.1853773474</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>458173.1853773474</v>
+        <v>716704.3847156607</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>458173.1853773474</v>
+        <v>760067.8108332932</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>458173.1853773473</v>
+        <v>760067.8108332932</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760067.8108332932</v>
+        <v>760067.8108332934</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760067.8108332934</v>
+        <v>760067.8108332932</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760067.8108332934</v>
+        <v>760067.8108332932</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760067.8108332934</v>
+        <v>760067.8108332932</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>458173.1853773474</v>
+        <v>760067.8108332932</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177882.8010830318</v>
+        <v>177882.8010830319</v>
       </c>
       <c r="C2" t="n">
         <v>177882.8010830319</v>
       </c>
       <c r="D2" t="n">
-        <v>177882.8010830318</v>
+        <v>177882.8010830319</v>
       </c>
       <c r="E2" t="n">
-        <v>177882.8010830318</v>
+        <v>278234.0511165273</v>
       </c>
       <c r="F2" t="n">
-        <v>177882.801083032</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="G2" t="n">
-        <v>177882.8010830318</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="H2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="I2" t="n">
-        <v>295065.9616471595</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="J2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="K2" t="n">
         <v>295065.9616471597</v>
@@ -26344,16 +26346,16 @@
         <v>295065.9616471597</v>
       </c>
       <c r="M2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="N2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="O2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="P2" t="n">
-        <v>177882.8010830318</v>
+        <v>295065.9616471596</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>184751.0683929128</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>29737.45639129563</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875097</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>154199.9251377778</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25420.05256608777</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>43571.76943387372</v>
       </c>
       <c r="C4" t="n">
+        <v>43571.76943387373</v>
+      </c>
+      <c r="D4" t="n">
         <v>43571.76943387372</v>
       </c>
-      <c r="D4" t="n">
-        <v>43571.76943387371</v>
-      </c>
       <c r="E4" t="n">
-        <v>43571.76943387372</v>
+        <v>68242.59141848597</v>
       </c>
       <c r="F4" t="n">
-        <v>43571.76943387372</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
-        <v>43571.76943387372</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
@@ -26445,19 +26447,19 @@
         <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="P4" t="n">
-        <v>43571.76943387372</v>
+        <v>72380.6272498637</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>71439.85875631262</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26525,25 +26527,25 @@
         <v>66864.78061173006</v>
       </c>
       <c r="D6" t="n">
-        <v>66864.78061173004</v>
+        <v>66864.78061173006</v>
       </c>
       <c r="E6" t="n">
-        <v>100492.38061173</v>
+        <v>-46199.46745118404</v>
       </c>
       <c r="F6" t="n">
-        <v>100492.3806117302</v>
+        <v>115197.8158175708</v>
       </c>
       <c r="G6" t="n">
-        <v>100492.3806117299</v>
+        <v>144935.2722088663</v>
       </c>
       <c r="H6" t="n">
-        <v>-50016.86777864335</v>
+        <v>144935.2722088663</v>
       </c>
       <c r="I6" t="n">
-        <v>144935.2722088661</v>
+        <v>144935.2722088663</v>
       </c>
       <c r="J6" t="n">
-        <v>-598.3977259500825</v>
+        <v>-598.3977259501553</v>
       </c>
       <c r="K6" t="n">
         <v>144935.2722088663</v>
@@ -26552,16 +26554,16 @@
         <v>144935.2722088663</v>
       </c>
       <c r="M6" t="n">
+        <v>-9264.652928911513</v>
+      </c>
+      <c r="N6" t="n">
+        <v>119515.2196427785</v>
+      </c>
+      <c r="O6" t="n">
         <v>144935.2722088664</v>
       </c>
-      <c r="N6" t="n">
-        <v>144935.2722088663</v>
-      </c>
-      <c r="O6" t="n">
-        <v>144935.2722088663</v>
-      </c>
       <c r="P6" t="n">
-        <v>100492.38061173</v>
+        <v>144935.2722088662</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>1174.997676913036</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>618.7698637974424</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>103.7862406598202</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572629</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974424</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598202</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>618.7698637974424</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.7862406598202</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572629</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>415.0101894726378</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155939</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>437.0840165728148</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>75.42597529544686</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34936,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>263.0232516395694</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155939</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>527.4536661148499</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35176,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N8" t="n">
-        <v>533.7539620806203</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35246,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>349.6900184701289</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>440.0596680121644</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155939</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>48.74406945557187</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>274.7889887279203</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155939</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>163.8547131678029</v>
       </c>
       <c r="O12" t="n">
-        <v>349.6900184701291</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>415.0101894726379</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>556.2278131155939</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="O15" t="n">
-        <v>245.6677613624794</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155939</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>556.2278131155939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>73.06155854104156</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155939</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>245.6677613624794</v>
+        <v>507.0757444178494</v>
       </c>
       <c r="P18" t="n">
-        <v>556.2278131155939</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>886.8993927061638</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811492</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36200,7 +36202,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="O21" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,13 +36600,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>886.8993927061638</v>
+        <v>958.5461846399789</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>677.4563459795569</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439022</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>29.35023495359069</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37394,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338712</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>163.8547131678031</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>556.2278131155939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>556.2278131155939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155939</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>48.74406945557187</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M45" t="n">
-        <v>349.690018470129</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>543818.6886684818</v>
+        <v>541392.0961841986</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2519657.038588232</v>
+        <v>2519657.038588237</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -670,16 +670,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>376.2268075574878</v>
+        <v>117.7395304238327</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>49.87597792716608</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>15.21029030982599</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>122.5851894922874</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>152.2874329677962</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>49.87597792716518</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>58.67748875058538</v>
       </c>
       <c r="Y8" t="n">
-        <v>24.12958620662185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>275.6294402437424</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>209.5855565322903</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399244</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2295,16 +2295,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>218.008057705788</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.07475062513896</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3663,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>48.01717451134703</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.5579231409067</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F46" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1700.695594043986</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C2" t="n">
-        <v>1273.794864057287</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D2" t="n">
-        <v>850.5022432422868</v>
+        <v>1049.425036578451</v>
       </c>
       <c r="E2" t="n">
-        <v>424.5253033901444</v>
+        <v>623.4480967263081</v>
       </c>
       <c r="F2" t="n">
-        <v>424.5253033901444</v>
+        <v>198.3239149157083</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924752</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336855</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X2" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y2" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336855</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>1696.494830002562</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O3" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9200589091697</v>
+        <v>438.7123380797772</v>
       </c>
       <c r="C4" t="n">
-        <v>322.9474957880857</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="D4" t="n">
-        <v>159.6307229148564</v>
+        <v>266.7397749586933</v>
       </c>
       <c r="E4" t="n">
-        <v>159.6307229148564</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>159.6307229148564</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>159.6307229148564</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754302</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212353</v>
+        <v>855.2210751021008</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0860276212353</v>
+        <v>628.8783067918429</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>591.6142695938305</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C5" t="n">
-        <v>591.6142695938305</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D5" t="n">
-        <v>168.3216487788308</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E5" t="n">
-        <v>168.3216487788308</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505811</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819457</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.519902762723</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.79990393047</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.462633885361</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336855</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336855</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336855</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N6" t="n">
-        <v>595.1637600336855</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.689568770218</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.788838783518</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D8" t="n">
-        <v>930.4962179685185</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E8" t="n">
-        <v>504.5192781163761</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336855</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.911252462376</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y8" t="n">
-        <v>2200.537933061748</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="9">
@@ -4871,37 +4871,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>669.8354755761781</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761781</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761781</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924752</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2497.501727554001</v>
+        <v>2383.91144482761</v>
       </c>
       <c r="C11" t="n">
-        <v>2070.600997567301</v>
+        <v>2105.49786882383</v>
       </c>
       <c r="D11" t="n">
-        <v>1647.308376752302</v>
+        <v>1682.20524800883</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.331436900159</v>
+        <v>1256.228308156688</v>
       </c>
       <c r="F11" t="n">
-        <v>796.2072550895595</v>
+        <v>831.104126346088</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8681926790081</v>
+        <v>426.7650639355367</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99981415304292</v>
+        <v>128.8966854095715</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99981415304292</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J11" t="n">
-        <v>93.99981415304292</v>
+        <v>456.6032729699382</v>
       </c>
       <c r="K11" t="n">
-        <v>809.508122128542</v>
+        <v>1172.111580945437</v>
       </c>
       <c r="L11" t="n">
-        <v>1739.133169747819</v>
+        <v>2101.736628564714</v>
       </c>
       <c r="M11" t="n">
-        <v>2743.419271166877</v>
+        <v>3106.022729983772</v>
       </c>
       <c r="N11" t="n">
-        <v>3719.670329653577</v>
+        <v>3418.06961410812</v>
       </c>
       <c r="O11" t="n">
-        <v>3719.670329653577</v>
+        <v>3418.06961410812</v>
       </c>
       <c r="P11" t="n">
-        <v>4427.949608811505</v>
+        <v>4126.348893266048</v>
       </c>
       <c r="Q11" t="n">
-        <v>4699.990707652146</v>
+        <v>4582.434372770231</v>
       </c>
       <c r="R11" t="n">
-        <v>4699.990707652146</v>
+        <v>4699.990707652133</v>
       </c>
       <c r="S11" t="n">
-        <v>4699.990707652146</v>
+        <v>4595.623413525273</v>
       </c>
       <c r="T11" t="n">
-        <v>4699.990707652146</v>
+        <v>4374.697842569906</v>
       </c>
       <c r="U11" t="n">
-        <v>4488.288125296297</v>
+        <v>4374.697842569906</v>
       </c>
       <c r="V11" t="n">
-        <v>4130.798710422547</v>
+        <v>4017.208427696156</v>
       </c>
       <c r="W11" t="n">
-        <v>3734.407360722893</v>
+        <v>3620.817077996503</v>
       </c>
       <c r="X11" t="n">
-        <v>3322.687361890641</v>
+        <v>3209.09707916425</v>
       </c>
       <c r="Y11" t="n">
-        <v>2917.350091845531</v>
+        <v>2803.759809119141</v>
       </c>
     </row>
     <row r="12">
@@ -5096,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>661.1233051844981</v>
+        <v>661.1233051844979</v>
       </c>
       <c r="C12" t="n">
-        <v>543.6174017020029</v>
+        <v>543.6174017020027</v>
       </c>
       <c r="D12" t="n">
-        <v>439.777443217288</v>
+        <v>439.7774432172877</v>
       </c>
       <c r="E12" t="n">
-        <v>335.0755094902252</v>
+        <v>335.0755094902249</v>
       </c>
       <c r="F12" t="n">
-        <v>241.4296791731293</v>
+        <v>241.429679173129</v>
       </c>
       <c r="G12" t="n">
-        <v>147.3759073907333</v>
+        <v>147.3759073907331</v>
       </c>
       <c r="H12" t="n">
-        <v>93.99981415304292</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I12" t="n">
-        <v>93.99981415304292</v>
+        <v>101.4464571149545</v>
       </c>
       <c r="J12" t="n">
-        <v>93.99981415304292</v>
+        <v>373.1439463945456</v>
       </c>
       <c r="K12" t="n">
-        <v>684.4847407213825</v>
+        <v>722.3442508322751</v>
       </c>
       <c r="L12" t="n">
-        <v>684.4847407213825</v>
+        <v>722.3442508322751</v>
       </c>
       <c r="M12" t="n">
-        <v>1740.471278697428</v>
+        <v>722.3442508322751</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.687444733553</v>
+        <v>722.3442508322751</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.687444733553</v>
+        <v>722.3442508322751</v>
       </c>
       <c r="P12" t="n">
-        <v>1902.687444733553</v>
+        <v>1438.541967870773</v>
       </c>
       <c r="Q12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="R12" t="n">
-        <v>1902.687444733553</v>
+        <v>1902.687444733552</v>
       </c>
       <c r="S12" t="n">
         <v>1821.363197294807</v>
@@ -5162,10 +5162,10 @@
         <v>1093.220549484605</v>
       </c>
       <c r="X12" t="n">
-        <v>929.7432032512685</v>
+        <v>929.7432032512683</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.0503146045609</v>
+        <v>790.0503146045606</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1177.18093667728</v>
+        <v>365.1174930155332</v>
       </c>
       <c r="C13" t="n">
-        <v>1005.208373556196</v>
+        <v>193.1449298944492</v>
       </c>
       <c r="D13" t="n">
-        <v>841.8916006829664</v>
+        <v>193.1449298944492</v>
       </c>
       <c r="E13" t="n">
-        <v>675.68339483582</v>
+        <v>193.1449298944492</v>
       </c>
       <c r="F13" t="n">
-        <v>503.8216206103804</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="G13" t="n">
-        <v>337.5646509046126</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="H13" t="n">
-        <v>193.768382412767</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99981415304292</v>
+        <v>93.99981415304266</v>
       </c>
       <c r="J13" t="n">
-        <v>151.4911423772009</v>
+        <v>151.4911423772007</v>
       </c>
       <c r="K13" t="n">
-        <v>378.0187435830381</v>
+        <v>378.0187435830379</v>
       </c>
       <c r="L13" t="n">
-        <v>732.7080648774589</v>
+        <v>732.7080648774586</v>
       </c>
       <c r="M13" t="n">
-        <v>1123.89385984771</v>
+        <v>1123.893859847709</v>
       </c>
       <c r="N13" t="n">
-        <v>1501.385370723746</v>
+        <v>1501.385370723745</v>
       </c>
       <c r="O13" t="n">
-        <v>1856.813499403509</v>
+        <v>1856.813499403508</v>
       </c>
       <c r="P13" t="n">
         <v>2147.412711325409</v>
@@ -5223,28 +5223,28 @@
         <v>2274.412841566171</v>
       </c>
       <c r="R13" t="n">
-        <v>2227.374228253344</v>
+        <v>2274.412841566171</v>
       </c>
       <c r="S13" t="n">
-        <v>2227.374228253344</v>
+        <v>2104.277794085306</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.374228253344</v>
+        <v>1860.938446311206</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.374228253344</v>
+        <v>1580.75399781151</v>
       </c>
       <c r="V13" t="n">
-        <v>2111.105974081285</v>
+        <v>1299.042530419539</v>
       </c>
       <c r="W13" t="n">
-        <v>1836.253570253798</v>
+        <v>1024.190126592052</v>
       </c>
       <c r="X13" t="n">
-        <v>1593.689673699603</v>
+        <v>781.6262300378568</v>
       </c>
       <c r="Y13" t="n">
-        <v>1367.346905389345</v>
+        <v>555.2834617275988</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
         <v>1264.531207409474</v>
@@ -5278,52 +5278,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.8188681099</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N15" t="n">
-        <v>730.647150085061</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O15" t="n">
-        <v>730.647150085061</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C16" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D16" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E16" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5466,22 +5466,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y16" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,19 +5503,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,28 +5524,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>4398.937953252928</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5764,22 +5764,22 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>964.4851292537592</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M21" t="n">
-        <v>964.4851292537592</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357521</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886056</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1601.992572952389</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1601.992572952389</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1601.992572952389</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>4092.726745831968</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>4092.726745831968</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>4092.726745831968</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991802</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478503</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629315</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6311,22 +6311,22 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784957</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890561</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,19 +6451,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
@@ -6472,28 +6472,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6651,22 +6651,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>109.7493563677404</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>109.7493563677404</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1165.735894343786</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E34" t="n">
         <v>274.1644876312681</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,19 +6925,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6946,28 +6946,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>4935.721337874071</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7125,22 +7125,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,31 +7180,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690842</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7256,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>655.1318596602905</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>606.6296631841824</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841824</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1589.056897064296</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1314.204493236809</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1071.640596682614</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>845.2978283723562</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7423,40 +7423,40 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1707.981708455798</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1041.68756743822</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C43" t="n">
-        <v>869.7150043171358</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D43" t="n">
-        <v>706.3982314439065</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E43" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2218.951952616325</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1975.612604842225</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.612604842225</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1975.612604842225</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>1700.760201014738</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>1458.196304460543</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>1231.853536150285</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2585.460682495986</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N44" t="n">
-        <v>3561.711740982686</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O44" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>1446.844867123559</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>373.4203922683193</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>201.4478291472353</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>201.4478291472353</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.056897064296</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1307.345429672325</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.493025844838</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>789.9291292906429</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.5863609803849</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830993</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.17301358442536</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>452.4414523720699</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>205.0632038737858</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489274</v>
+        <v>372.0892523034619</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>267.4386025673079</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500401</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>372.0892523034622</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8701,7 +8701,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>352.4784956873221</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>310.9136633325184</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>375.1268140734641</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>185.1977413813445</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>59.58495761848395</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>42.21574383418027</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>530.2476341400716</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,16 +9412,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>238.1216346371733</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9485,19 +9485,19 @@
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>977.4089016807933</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>995.9774475394107</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9959,7 +9959,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>60.75701611917185</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9971,13 +9971,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,19 +10120,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,16 +10360,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P32" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>50.69326316713236</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.60750039798516</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,7 +10828,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>952.685833629606</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10904,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10916,7 +10916,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
@@ -10925,7 +10925,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,16 +11071,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P41" t="n">
-        <v>100.0581876036184</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11147,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>502.225283590884</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.06886422895803</v>
+        <v>282.5561413626132</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22710,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>114.6701458615089</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>127.1480154971012</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>298.2877505002064</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>103.4839273417556</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>114.6701458615098</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>348.9253100933448</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.1543111380367</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23184,13 +23184,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>147.0022824430905</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>46.18580377726153</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919274</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>59.37454630891071</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.189558399806</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>122.2356629785261</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>151.8757738651498</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F46" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>458173.1853773474</v>
+        <v>458173.1853773475</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>458173.1853773474</v>
+        <v>458173.1853773475</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>716704.3847156607</v>
+        <v>716704.3847156595</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760067.8108332934</v>
+        <v>760067.8108332932</v>
       </c>
     </row>
     <row r="11">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177882.8010830319</v>
+        <v>177882.801083032</v>
       </c>
       <c r="C2" t="n">
         <v>177882.8010830319</v>
@@ -26322,28 +26322,28 @@
         <v>177882.8010830319</v>
       </c>
       <c r="E2" t="n">
-        <v>278234.0511165273</v>
+        <v>278234.0511165268</v>
       </c>
       <c r="F2" t="n">
-        <v>295065.9616471598</v>
+        <v>295065.9616471597</v>
       </c>
       <c r="G2" t="n">
         <v>295065.9616471597</v>
       </c>
       <c r="H2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="I2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="J2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="K2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="L2" t="n">
-        <v>295065.9616471597</v>
+        <v>295065.9616471598</v>
       </c>
       <c r="M2" t="n">
         <v>295065.9616471597</v>
@@ -26355,7 +26355,7 @@
         <v>295065.9616471598</v>
       </c>
       <c r="P2" t="n">
-        <v>295065.9616471596</v>
+        <v>295065.9616471598</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>184751.0683929128</v>
+        <v>184751.0683929118</v>
       </c>
       <c r="F3" t="n">
-        <v>29737.45639129563</v>
+        <v>29737.4563912966</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154199.9251377778</v>
+        <v>154199.925137777</v>
       </c>
       <c r="N3" t="n">
-        <v>25420.05256608777</v>
+        <v>25420.0525660886</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="C4" t="n">
         <v>43571.76943387373</v>
       </c>
       <c r="D4" t="n">
-        <v>43571.76943387372</v>
+        <v>43571.76943387373</v>
       </c>
       <c r="E4" t="n">
-        <v>68242.59141848597</v>
+        <v>68242.59141848583</v>
       </c>
       <c r="F4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="K4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="K4" t="n">
-        <v>72380.62724986371</v>
-      </c>
-      <c r="L4" t="n">
-        <v>72380.6272498637</v>
-      </c>
       <c r="M4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="O4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>71439.85875631262</v>
+        <v>71439.85875631242</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119539.9528030071</v>
+        <v>-120148.9985154968</v>
       </c>
       <c r="C6" t="n">
-        <v>66864.78061173006</v>
+        <v>66255.73489924037</v>
       </c>
       <c r="D6" t="n">
-        <v>66864.78061173006</v>
+        <v>66255.73489924037</v>
       </c>
       <c r="E6" t="n">
-        <v>-46199.46745118404</v>
+        <v>-46330.65006827535</v>
       </c>
       <c r="F6" t="n">
-        <v>115197.8158175708</v>
+        <v>115146.7851553854</v>
       </c>
       <c r="G6" t="n">
-        <v>144935.2722088663</v>
+        <v>144884.241546682</v>
       </c>
       <c r="H6" t="n">
-        <v>144935.2722088663</v>
+        <v>144884.2415466821</v>
       </c>
       <c r="I6" t="n">
-        <v>144935.2722088663</v>
+        <v>144884.2415466821</v>
       </c>
       <c r="J6" t="n">
-        <v>-598.3977259501553</v>
+        <v>-649.428388134445</v>
       </c>
       <c r="K6" t="n">
-        <v>144935.2722088663</v>
+        <v>144884.2415466821</v>
       </c>
       <c r="L6" t="n">
-        <v>144935.2722088663</v>
+        <v>144884.2415466821</v>
       </c>
       <c r="M6" t="n">
-        <v>-9264.652928911513</v>
+        <v>-9315.683591095018</v>
       </c>
       <c r="N6" t="n">
-        <v>119515.2196427785</v>
+        <v>119464.1889805933</v>
       </c>
       <c r="O6" t="n">
-        <v>144935.2722088664</v>
+        <v>144884.2415466821</v>
       </c>
       <c r="P6" t="n">
-        <v>144935.2722088662</v>
+        <v>144884.2415466821</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1174.997676913036</v>
+        <v>1174.997676913033</v>
       </c>
       <c r="F4" t="n">
         <v>1278.783917572857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>618.7698637974424</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="F4" t="n">
-        <v>103.7862406598202</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974424</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598202</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>618.7698637974424</v>
+        <v>618.7698637974391</v>
       </c>
       <c r="N4" t="n">
-        <v>103.7862406598202</v>
+        <v>103.7862406598235</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.42597529544686</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>415.0101894726381</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>556.227813115594</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.6677613624792</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.227813115594</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O8" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>349.6900184701289</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35421,7 +35421,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>315.1988728528761</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>274.7889887279203</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>352.7275802401308</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>163.8547131678029</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>507.0757444178494</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,16 +36132,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>200.7306752811492</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
@@ -36205,19 +36205,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>956.0658734672517</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,10 +36600,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>958.5461846399789</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,19 +36840,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,16 +37080,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>29.35023495359069</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.48282579338712</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>914.3737911969831</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
@@ -37645,7 +37645,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37791,16 +37791,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P41" t="n">
-        <v>62.48282579338712</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37867,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
